--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-0.1/percents/scores-10.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-0.1/percents/scores-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="55">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,54 +40,39 @@
     <t>name</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
     <t>terrifying</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>harmful</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
     <t>weird</t>
   </si>
   <si>
@@ -100,30 +85,12 @@
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>confused</t>
-  </si>
-  <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>hated</t>
-  </si>
-  <si>
-    <t>toxic</t>
-  </si>
-  <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>racist</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
     <t>insane</t>
   </si>
   <si>
@@ -133,16 +100,7 @@
     <t>dangerous</t>
   </si>
   <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
+    <t>afraid</t>
   </si>
   <si>
     <t>0.95-negative</t>
@@ -151,91 +109,55 @@
     <t>good</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>best</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>brilliant</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>loved</t>
+    <t>documentary</t>
   </si>
   <si>
     <t>fascinating</t>
   </si>
   <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>engagement</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>incredible</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>…</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>del</t>
+  </si>
+  <si>
+    <t>irony</t>
+  </si>
+  <si>
+    <t>dilemma</t>
   </si>
   <si>
     <t>0.95-positive</t>
@@ -614,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS37"/>
+  <dimension ref="A1:BS23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,28 +544,28 @@
   <sheetData>
     <row r="1" spans="1:71">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="S1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="AB1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="AK1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="AT1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="BC1" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="BL1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -845,13 +767,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01489172790917729</v>
+        <v>0.01806585790491533</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -866,16 +788,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="K3">
-        <v>0.01184596126400882</v>
+        <v>0.01045878231252151</v>
       </c>
       <c r="L3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -887,19 +809,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="T3">
-        <v>0.01761956025981023</v>
+        <v>0.02138905983718104</v>
       </c>
       <c r="U3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -914,16 +836,16 @@
         <v>2</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="AC3">
-        <v>0.08215229388452046</v>
+        <v>0.01220598257976623</v>
       </c>
       <c r="AD3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -935,19 +857,19 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AL3">
-        <v>0.1506347231788658</v>
+        <v>0.0262460472766463</v>
       </c>
       <c r="AM3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AN3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -962,16 +884,16 @@
         <v>2</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="AU3">
-        <v>0.06524782468764838</v>
+        <v>0.01475958297035466</v>
       </c>
       <c r="AV3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AW3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX3">
         <v>1</v>
@@ -983,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BD3">
-        <v>0.1265040821787864</v>
+        <v>0.03401722717979072</v>
       </c>
       <c r="BE3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="BF3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -1010,16 +932,16 @@
         <v>2</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="BM3">
-        <v>0.05718719818829718</v>
+        <v>0.1381716380307215</v>
       </c>
       <c r="BN3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BO3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BP3">
         <v>1</v>
@@ -1031,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1039,7 +961,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01486763747368244</v>
+        <v>0.01505188058509466</v>
       </c>
       <c r="C4">
         <v>19</v>
@@ -1057,19 +979,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="K4">
-        <v>0.01112064520719255</v>
+        <v>0.009761457328889176</v>
       </c>
       <c r="L4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1081,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T4">
-        <v>0.0175051306912097</v>
+        <v>0.01780996176989399</v>
       </c>
       <c r="U4">
         <v>19</v>
@@ -1105,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="AC4">
-        <v>0.07847884912699461</v>
+        <v>0.01157034843642059</v>
       </c>
       <c r="AD4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -1129,13 +1051,13 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL4">
-        <v>0.1489483385169812</v>
+        <v>0.02184100350152379</v>
       </c>
       <c r="AM4">
         <v>19</v>
@@ -1153,19 +1075,19 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="AU4">
-        <v>0.06306728061781902</v>
+        <v>0.01421411236281266</v>
       </c>
       <c r="AV4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AW4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AX4">
         <v>1</v>
@@ -1177,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD4">
-        <v>0.1245713010751437</v>
+        <v>0.02829067027213145</v>
       </c>
       <c r="BE4">
         <v>19</v>
@@ -1201,19 +1123,19 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="BM4">
-        <v>0.05571851999866785</v>
+        <v>0.1353652641629644</v>
       </c>
       <c r="BN4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BO4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BP4">
         <v>1</v>
@@ -1225,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1233,7 +1155,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.003715403716202181</v>
+        <v>0.003755467640436716</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1254,16 +1176,16 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="K5">
-        <v>0.00890856138350146</v>
+        <v>0.009749453319550056</v>
       </c>
       <c r="L5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1275,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T5">
-        <v>0.004369130824764892</v>
+        <v>0.004416853539747988</v>
       </c>
       <c r="U5">
         <v>4</v>
@@ -1302,16 +1224,16 @@
         <v>1</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AC5">
-        <v>0.06666733715624137</v>
+        <v>0.01151332939205977</v>
       </c>
       <c r="AD5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF5">
         <v>1</v>
@@ -1323,13 +1245,13 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AL5">
-        <v>0.03922925873976014</v>
+        <v>0.005383494469510616</v>
       </c>
       <c r="AM5">
         <v>4</v>
@@ -1350,16 +1272,16 @@
         <v>1</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AU5">
-        <v>0.05563156580635571</v>
+        <v>0.01409130211342013</v>
       </c>
       <c r="AV5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX5">
         <v>1</v>
@@ -1371,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="BD5">
-        <v>0.03727105543947159</v>
+        <v>0.006930119957130821</v>
       </c>
       <c r="BE5">
         <v>4</v>
@@ -1398,16 +1320,16 @@
         <v>1</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="BM5">
-        <v>0.0503693342658274</v>
+        <v>0.133769918336741</v>
       </c>
       <c r="BN5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BO5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BP5">
         <v>1</v>
@@ -1419,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1427,7 +1349,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.00370938110732847</v>
+        <v>0.003749465635767157</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1448,16 +1370,16 @@
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="K6">
-        <v>0.008896516165754037</v>
+        <v>0.009725445300871818</v>
       </c>
       <c r="L6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1469,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T6">
-        <v>0.004340523432614761</v>
+        <v>0.00438834401756758</v>
       </c>
       <c r="U6">
         <v>4</v>
@@ -1496,16 +1418,16 @@
         <v>2</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="AC6">
-        <v>0.06640361125684946</v>
+        <v>0.01139929130333814</v>
       </c>
       <c r="AD6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF6">
         <v>1</v>
@@ -1517,13 +1439,13 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AL6">
-        <v>0.03880766257428903</v>
+        <v>0.005322089344814352</v>
       </c>
       <c r="AM6">
         <v>4</v>
@@ -1544,16 +1466,16 @@
         <v>2</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="AU6">
-        <v>0.05533353827236397</v>
+        <v>0.01384568161463507</v>
       </c>
       <c r="AV6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX6">
         <v>1</v>
@@ -1565,13 +1487,13 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="BD6">
-        <v>0.03678786016356093</v>
+        <v>0.006816081868409188</v>
       </c>
       <c r="BE6">
         <v>4</v>
@@ -1592,16 +1514,16 @@
         <v>2</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="BM6">
-        <v>0.05005495054450993</v>
+        <v>0.1305792266842941</v>
       </c>
       <c r="BN6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BO6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BP6">
         <v>1</v>
@@ -1613,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1621,7 +1543,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.003691313280707334</v>
+        <v>0.003743463631097597</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -1639,19 +1561,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="K7">
-        <v>0.00445428069175073</v>
+        <v>0.005253399174938991</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1669,7 +1591,7 @@
         <v>12</v>
       </c>
       <c r="T7">
-        <v>0.004254701256164366</v>
+        <v>0.004359834495387171</v>
       </c>
       <c r="U7">
         <v>4</v>
@@ -1687,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AC7">
-        <v>0.04238499846625509</v>
+        <v>0.006217029378604745</v>
       </c>
       <c r="AD7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF7">
         <v>1</v>
@@ -1717,7 +1639,7 @@
         <v>12</v>
       </c>
       <c r="AL7">
-        <v>0.03754287407787568</v>
+        <v>0.005260684220118089</v>
       </c>
       <c r="AM7">
         <v>4</v>
@@ -1735,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AU7">
-        <v>0.04001506734844976</v>
+        <v>0.007625411983962387</v>
       </c>
       <c r="AV7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX7">
         <v>1</v>
@@ -1765,7 +1687,7 @@
         <v>12</v>
       </c>
       <c r="BD7">
-        <v>0.03533827433582894</v>
+        <v>0.006702043779687555</v>
       </c>
       <c r="BE7">
         <v>4</v>
@@ -1783,19 +1705,19 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="BM7">
-        <v>0.03888500349685282</v>
+        <v>0.07545268364838853</v>
       </c>
       <c r="BN7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP7">
         <v>1</v>
@@ -1815,7 +1737,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.002975936538285972</v>
+        <v>0.003007975315151109</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1836,10 +1758,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="K8">
-        <v>0.004448258082877019</v>
+        <v>0.004502056149280627</v>
       </c>
       <c r="L8">
         <v>5</v>
@@ -1857,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="T8">
-        <v>0.003512469095101993</v>
+        <v>0.003550588545106635</v>
       </c>
       <c r="U8">
         <v>3</v>
@@ -1884,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="AC8">
-        <v>0.04225313551655913</v>
+        <v>0.005324809535635438</v>
       </c>
       <c r="AD8">
         <v>5</v>
@@ -1905,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="AL8">
-        <v>0.03219571753159282</v>
+        <v>0.004343638650426251</v>
       </c>
       <c r="AM8">
         <v>3</v>
@@ -1932,10 +1854,10 @@
         <v>0</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="AU8">
-        <v>0.03986605358145389</v>
+        <v>0.006527295254154008</v>
       </c>
       <c r="AV8">
         <v>5</v>
@@ -1953,13 +1875,13 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="BD8">
-        <v>0.03177316924770056</v>
+        <v>0.005612518818937637</v>
       </c>
       <c r="BE8">
         <v>3</v>
@@ -1980,10 +1902,10 @@
         <v>0</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="BM8">
-        <v>0.03872781163619408</v>
+        <v>0.06546725356262588</v>
       </c>
       <c r="BN8">
         <v>5</v>
@@ -2001,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="BS8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:71">
@@ -2009,7 +1931,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.002230446751496051</v>
+        <v>0.002254480985195942</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2030,10 +1952,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="K9">
-        <v>0.003710896808313324</v>
+        <v>0.003750713123622262</v>
       </c>
       <c r="L9">
         <v>4</v>
@@ -2057,7 +1979,7 @@
         <v>14</v>
       </c>
       <c r="T9">
-        <v>0.002627199973288962</v>
+        <v>0.002655814028284874</v>
       </c>
       <c r="U9">
         <v>2</v>
@@ -2078,10 +2000,10 @@
         <v>0</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AC9">
-        <v>0.03831596485964137</v>
+        <v>0.004432589692666129</v>
       </c>
       <c r="AD9">
         <v>4</v>
@@ -2105,7 +2027,7 @@
         <v>14</v>
       </c>
       <c r="AL9">
-        <v>0.02474058015795438</v>
+        <v>0.003242377706645623</v>
       </c>
       <c r="AM9">
         <v>2</v>
@@ -2126,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AU9">
-        <v>0.03738748197763278</v>
+        <v>0.005429178524345629</v>
       </c>
       <c r="AV9">
         <v>4</v>
@@ -2153,7 +2075,7 @@
         <v>14</v>
       </c>
       <c r="BD9">
-        <v>0.02579208778001886</v>
+        <v>0.00418087959202282</v>
       </c>
       <c r="BE9">
         <v>2</v>
@@ -2174,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="BM9">
-        <v>0.03694474972524727</v>
+        <v>0.05548182347686323</v>
       </c>
       <c r="BN9">
         <v>4</v>
@@ -2203,7 +2125,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.002230446751496051</v>
+        <v>0.002254480985195942</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2224,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K10">
-        <v>0.002961490316002205</v>
+        <v>0.002993368093294338</v>
       </c>
       <c r="L10">
         <v>3</v>
@@ -2251,7 +2173,7 @@
         <v>15</v>
       </c>
       <c r="T10">
-        <v>0.002627199973288962</v>
+        <v>0.002655814028284874</v>
       </c>
       <c r="U10">
         <v>2</v>
@@ -2272,10 +2194,10 @@
         <v>0</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="AC10">
-        <v>0.03411506830333171</v>
+        <v>0.003511860327516414</v>
       </c>
       <c r="AD10">
         <v>3</v>
@@ -2299,7 +2221,7 @@
         <v>15</v>
       </c>
       <c r="AL10">
-        <v>0.02474058015795438</v>
+        <v>0.003242377706645623</v>
       </c>
       <c r="AM10">
         <v>2</v>
@@ -2320,10 +2242,10 @@
         <v>0</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="AU10">
-        <v>0.03461088283981994</v>
+        <v>0.004269656669840987</v>
       </c>
       <c r="AV10">
         <v>3</v>
@@ -2347,7 +2269,7 @@
         <v>15</v>
       </c>
       <c r="BD10">
-        <v>0.02579208778001886</v>
+        <v>0.00418087959202282</v>
       </c>
       <c r="BE10">
         <v>2</v>
@@ -2368,10 +2290,10 @@
         <v>0</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="BM10">
-        <v>0.03484730409298297</v>
+        <v>0.04469872047798884</v>
       </c>
       <c r="BN10">
         <v>3</v>
@@ -2397,7 +2319,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.002230446751496051</v>
+        <v>0.002254480985195942</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2418,10 +2340,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="K11">
-        <v>0.002335138993136165</v>
+        <v>0.002993368093294338</v>
       </c>
       <c r="L11">
         <v>3</v>
@@ -2439,13 +2361,13 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="T11">
-        <v>0.002627199973288962</v>
+        <v>0.002655814028284874</v>
       </c>
       <c r="U11">
         <v>2</v>
@@ -2466,16 +2388,16 @@
         <v>0</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AC11">
-        <v>0.03017789764641396</v>
+        <v>0.003511860327516414</v>
       </c>
       <c r="AD11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF11">
         <v>1</v>
@@ -2487,13 +2409,13 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AL11">
-        <v>0.02474058015795438</v>
+        <v>0.003242377706645623</v>
       </c>
       <c r="AM11">
         <v>2</v>
@@ -2514,16 +2436,16 @@
         <v>0</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AU11">
-        <v>0.03213231123599884</v>
+        <v>0.004269656669840987</v>
       </c>
       <c r="AV11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX11">
         <v>1</v>
@@ -2535,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="BD11">
-        <v>0.02579208778001886</v>
+        <v>0.00418087959202282</v>
       </c>
       <c r="BE11">
         <v>2</v>
@@ -2562,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="BM11">
-        <v>0.03306424218203616</v>
+        <v>0.04469872047798884</v>
       </c>
       <c r="BN11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BP11">
         <v>1</v>
@@ -2583,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="BS11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:71">
@@ -2591,7 +2513,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.002230446751496051</v>
+        <v>0.002242476975856823</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2609,13 +2531,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="K12">
-        <v>0.002224129041438509</v>
+        <v>0.002163999006931698</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -2633,13 +2555,13 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="T12">
-        <v>0.002627199973288962</v>
+        <v>0.002598794983924058</v>
       </c>
       <c r="U12">
         <v>2</v>
@@ -2657,13 +2579,13 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="AC12">
-        <v>0.02991417174702204</v>
+        <v>0.002249016696201799</v>
       </c>
       <c r="AD12">
         <v>2</v>
@@ -2681,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AK12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AL12">
-        <v>0.02474058015795438</v>
+        <v>0.003119567457253095</v>
       </c>
       <c r="AM12">
         <v>2</v>
@@ -2705,13 +2627,13 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="AU12">
-        <v>0.0318342837020071</v>
+        <v>0.002373273318981177</v>
       </c>
       <c r="AV12">
         <v>2</v>
@@ -2729,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BC12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="BD12">
-        <v>0.02579208778001886</v>
+        <v>0.003952803414579553</v>
       </c>
       <c r="BE12">
         <v>2</v>
@@ -2753,19 +2675,19 @@
         <v>0</v>
       </c>
       <c r="BJ12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="BM12">
-        <v>0.03274985846071868</v>
+        <v>0.02552553321957527</v>
       </c>
       <c r="BN12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP12">
         <v>1</v>
@@ -2777,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="BS12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:71">
@@ -2785,7 +2707,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.002230446751496051</v>
+        <v>0.002212466952509024</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2803,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="K13">
-        <v>0.002212083823691086</v>
+        <v>0.002019950894862267</v>
       </c>
       <c r="L13">
         <v>2</v>
@@ -2827,13 +2749,13 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T13">
-        <v>0.002627199973288962</v>
+        <v>0.002456247373022016</v>
       </c>
       <c r="U13">
         <v>2</v>
@@ -2851,19 +2773,19 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AC13">
-        <v>0.02951858289793416</v>
+        <v>0.001755930163758207</v>
       </c>
       <c r="AD13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>1</v>
@@ -2875,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AL13">
-        <v>0.02474058015795438</v>
+        <v>0.002812541833771775</v>
       </c>
       <c r="AM13">
         <v>2</v>
@@ -2899,19 +2821,19 @@
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AU13">
-        <v>0.0313872424010195</v>
+        <v>0.002134828334920493</v>
       </c>
       <c r="AV13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX13">
         <v>1</v>
@@ -2923,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BC13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="BD13">
-        <v>0.02579208778001886</v>
+        <v>0.003382612970971388</v>
       </c>
       <c r="BE13">
         <v>2</v>
@@ -2947,19 +2869,19 @@
         <v>0</v>
       </c>
       <c r="BJ13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="BM13">
-        <v>0.03227828287874245</v>
+        <v>0.02552553321957527</v>
       </c>
       <c r="BN13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP13">
         <v>1</v>
@@ -2971,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="BS13">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -2979,13 +2901,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.002230446751496051</v>
+        <v>0.001500986655240775</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3000,16 +2922,16 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>0.00219401599706995</v>
+        <v>0.001496684046647169</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -3021,19 +2943,19 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="T14">
-        <v>0.002627199973288962</v>
+        <v>0.001761039511463113</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -3048,16 +2970,16 @@
         <v>0</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="AC14">
-        <v>0.02833181635067051</v>
+        <v>0.001755930163758207</v>
       </c>
       <c r="AD14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>1</v>
@@ -3069,19 +2991,19 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AL14">
-        <v>0.02474058015795438</v>
+        <v>0.002141116762864994</v>
       </c>
       <c r="AM14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -3096,16 +3018,16 @@
         <v>0</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="AU14">
-        <v>0.03004611849805669</v>
+        <v>0.002134828334920493</v>
       </c>
       <c r="AV14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX14">
         <v>1</v>
@@ -3117,19 +3039,19 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BC14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="BD14">
-        <v>0.02579208778001886</v>
+        <v>0.002749240365108002</v>
       </c>
       <c r="BE14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG14">
         <v>0</v>
@@ -3144,10 +3066,10 @@
         <v>0</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="BM14">
-        <v>0.0311239884104306</v>
+        <v>0.02552553321957527</v>
       </c>
       <c r="BN14">
         <v>1</v>
@@ -3173,13 +3095,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002230446751496051</v>
+        <v>0.001500986655240775</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3194,16 +3116,16 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>0.002139812517206542</v>
+        <v>0.001496684046647169</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -3215,19 +3137,19 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="T15">
-        <v>0.002627199973288962</v>
+        <v>0.001761039511463113</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -3242,10 +3164,10 @@
         <v>0</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="AC15">
-        <v>0.02610886403980025</v>
+        <v>0.001755930163758207</v>
       </c>
       <c r="AD15">
         <v>1</v>
@@ -3269,13 +3191,13 @@
         <v>20</v>
       </c>
       <c r="AL15">
-        <v>0.02474058015795438</v>
+        <v>0.002141116762864994</v>
       </c>
       <c r="AM15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -3290,10 +3212,10 @@
         <v>0</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="AU15">
-        <v>0.02950472586518187</v>
+        <v>0.002134828334920493</v>
       </c>
       <c r="AV15">
         <v>1</v>
@@ -3317,13 +3239,13 @@
         <v>20</v>
       </c>
       <c r="BD15">
-        <v>0.02579208778001886</v>
+        <v>0.002749240365108002</v>
       </c>
       <c r="BE15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG15">
         <v>0</v>
@@ -3338,10 +3260,10 @@
         <v>0</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="BM15">
-        <v>0.0311239884104306</v>
+        <v>0.02472786030646355</v>
       </c>
       <c r="BN15">
         <v>1</v>
@@ -3359,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -3367,13 +3289,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.002230446751496051</v>
+        <v>0.001500986655240775</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3388,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>0.001480745158001102</v>
+        <v>0.001496684046647169</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -3415,13 +3337,13 @@
         <v>21</v>
       </c>
       <c r="T16">
-        <v>0.002627199973288962</v>
+        <v>0.001761039511463113</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -3436,10 +3358,10 @@
         <v>0</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="AC16">
-        <v>0.02610886403980025</v>
+        <v>0.001727420641577799</v>
       </c>
       <c r="AD16">
         <v>1</v>
@@ -3457,19 +3379,19 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AL16">
-        <v>0.02474058015795438</v>
+        <v>0.002141116762864994</v>
       </c>
       <c r="AM16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -3484,10 +3406,10 @@
         <v>0</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="AU16">
-        <v>0.02950472586518187</v>
+        <v>0.002073423210224229</v>
       </c>
       <c r="AV16">
         <v>1</v>
@@ -3505,19 +3427,19 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="BD16">
-        <v>0.02579208778001886</v>
+        <v>0.002749240365108002</v>
       </c>
       <c r="BE16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG16">
         <v>0</v>
@@ -3532,16 +3454,16 @@
         <v>0</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="BM16">
-        <v>0.0311239884104306</v>
+        <v>0.02434354252177374</v>
       </c>
       <c r="BN16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP16">
         <v>1</v>
@@ -3553,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3561,13 +3483,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.002218401533748628</v>
+        <v>0.001500986655240775</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3579,13 +3501,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="K17">
-        <v>0.001480745158001102</v>
+        <v>0.001490682041977609</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -3603,19 +3525,19 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.002569985188988699</v>
+        <v>0.001761039511463113</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -3627,13 +3549,13 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AC17">
-        <v>0.02610886403980025</v>
+        <v>0.00169891111939739</v>
       </c>
       <c r="AD17">
         <v>1</v>
@@ -3651,19 +3573,19 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AL17">
-        <v>0.02389738782701213</v>
+        <v>0.002141116762864994</v>
       </c>
       <c r="AM17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -3675,13 +3597,13 @@
         <v>0</v>
       </c>
       <c r="AR17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AU17">
-        <v>0.02950472586518187</v>
+        <v>0.002012018085527965</v>
       </c>
       <c r="AV17">
         <v>1</v>
@@ -3699,19 +3621,19 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="BD17">
-        <v>0.02482569722819753</v>
+        <v>0.002749240365108002</v>
       </c>
       <c r="BE17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG17">
         <v>0</v>
@@ -3723,13 +3645,13 @@
         <v>0</v>
       </c>
       <c r="BJ17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="BM17">
-        <v>0.0311239884104306</v>
+        <v>0.02393018739335182</v>
       </c>
       <c r="BN17">
         <v>1</v>
@@ -3747,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3755,13 +3677,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.002200333707127492</v>
+        <v>0.001500986655240775</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3773,13 +3695,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="K18">
-        <v>0.001480745158001102</v>
+        <v>0.00148468003730805</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -3797,19 +3719,19 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T18">
-        <v>0.002484163012538304</v>
+        <v>0.001761039511463113</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -3821,43 +3743,43 @@
         <v>0</v>
       </c>
       <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC18">
+        <v>0.001613382552856166</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18">
+        <v>1</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI18">
         <v>5</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC18">
-        <v>0.02610886403980025</v>
-      </c>
-      <c r="AD18">
-        <v>1</v>
-      </c>
-      <c r="AE18">
-        <v>1</v>
-      </c>
-      <c r="AF18">
-        <v>1</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
       </c>
       <c r="AK18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AL18">
-        <v>0.02263259933059878</v>
+        <v>0.002141116762864994</v>
       </c>
       <c r="AM18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -3869,43 +3791,43 @@
         <v>0</v>
       </c>
       <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU18">
+        <v>0.001827802711439174</v>
+      </c>
+      <c r="AV18">
+        <v>1</v>
+      </c>
+      <c r="AW18">
+        <v>1</v>
+      </c>
+      <c r="AX18">
+        <v>1</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA18">
         <v>5</v>
-      </c>
-      <c r="AT18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU18">
-        <v>0.02950472586518187</v>
-      </c>
-      <c r="AV18">
-        <v>1</v>
-      </c>
-      <c r="AW18">
-        <v>1</v>
-      </c>
-      <c r="AX18">
-        <v>1</v>
-      </c>
-      <c r="AY18">
-        <v>0</v>
-      </c>
-      <c r="AZ18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA18">
-        <v>0</v>
       </c>
       <c r="BC18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="BD18">
-        <v>0.02337611140046555</v>
+        <v>0.002749240365108002</v>
       </c>
       <c r="BE18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG18">
         <v>0</v>
@@ -3917,31 +3839,31 @@
         <v>0</v>
       </c>
       <c r="BJ18">
+        <v>0</v>
+      </c>
+      <c r="BL18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BM18">
+        <v>0.02153716865401663</v>
+      </c>
+      <c r="BN18">
+        <v>1</v>
+      </c>
+      <c r="BO18">
+        <v>1</v>
+      </c>
+      <c r="BP18">
+        <v>1</v>
+      </c>
+      <c r="BQ18">
+        <v>0</v>
+      </c>
+      <c r="BR18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS18">
         <v>5</v>
-      </c>
-      <c r="BL18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BM18">
-        <v>0.0311239884104306</v>
-      </c>
-      <c r="BN18">
-        <v>1</v>
-      </c>
-      <c r="BO18">
-        <v>1</v>
-      </c>
-      <c r="BP18">
-        <v>1</v>
-      </c>
-      <c r="BQ18">
-        <v>0</v>
-      </c>
-      <c r="BR18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS18">
-        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:71">
@@ -3949,7 +3871,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.00148495696470613</v>
+        <v>0.001500986655240775</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3970,10 +3892,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>0.001480745158001102</v>
+        <v>0.001466674023299371</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -3991,13 +3913,13 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T19">
-        <v>0.001741930851475931</v>
+        <v>0.001761039511463113</v>
       </c>
       <c r="U19">
         <v>1</v>
@@ -4018,16 +3940,16 @@
         <v>0</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AC19">
-        <v>0.02610886403980025</v>
+        <v>0.001564788163872001</v>
       </c>
       <c r="AD19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF19">
         <v>1</v>
@@ -4039,13 +3961,13 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AK19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AL19">
-        <v>0.01728544278431593</v>
+        <v>0.002141116762864994</v>
       </c>
       <c r="AM19">
         <v>1</v>
@@ -4066,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AU19">
-        <v>0.02950472586518187</v>
+        <v>0.0008995503262708426</v>
       </c>
       <c r="AV19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX19">
         <v>1</v>
@@ -4087,13 +4009,13 @@
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="BC19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="BD19">
-        <v>0.01981100631233716</v>
+        <v>0.002749240365108002</v>
       </c>
       <c r="BE19">
         <v>1</v>
@@ -4114,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="BM19">
-        <v>0.0311239884104306</v>
+        <v>0.005199392607092288</v>
       </c>
       <c r="BN19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP19">
         <v>1</v>
@@ -4135,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="BS19">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:71">
@@ -4143,7 +4065,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.00148495696470613</v>
+        <v>0.001500986655240775</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4164,10 +4086,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>0.001480745158001102</v>
+        <v>0.001304619897221261</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -4185,13 +4107,13 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T20">
-        <v>0.001741930851475931</v>
+        <v>0.001761039511463113</v>
       </c>
       <c r="U20">
         <v>1</v>
@@ -4212,10 +4134,10 @@
         <v>0</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="AC20">
-        <v>0.02610886403980025</v>
+        <v>0.000843625453985143</v>
       </c>
       <c r="AD20">
         <v>1</v>
@@ -4233,13 +4155,13 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AL20">
-        <v>0.01728544278431593</v>
+        <v>0.002141116762864994</v>
       </c>
       <c r="AM20">
         <v>1</v>
@@ -4260,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="AU20">
-        <v>0.02950472586518187</v>
+        <v>0.0001698643446400475</v>
       </c>
       <c r="AV20">
         <v>1</v>
@@ -4281,13 +4203,13 @@
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="BC20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="BD20">
-        <v>0.01981100631233716</v>
+        <v>0.002749240365108002</v>
       </c>
       <c r="BE20">
         <v>1</v>
@@ -4308,10 +4230,10 @@
         <v>0</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="BM20">
-        <v>0.0311239884104306</v>
+        <v>0</v>
       </c>
       <c r="BN20">
         <v>1</v>
@@ -4329,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="BS20">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:71">
@@ -4337,7 +4259,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.00148495696470613</v>
+        <v>0.001494984650571215</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4355,37 +4277,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K21">
-        <v>0.001480745158001102</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T21">
-        <v>0.001741930851475931</v>
+        <v>0.001732529989282705</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -4403,37 +4301,13 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC21">
-        <v>0.02610886403980025</v>
-      </c>
-      <c r="AD21">
-        <v>1</v>
-      </c>
-      <c r="AE21">
-        <v>1</v>
-      </c>
-      <c r="AF21">
-        <v>1</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AL21">
-        <v>0.01728544278431593</v>
+        <v>0.002079711638168729</v>
       </c>
       <c r="AM21">
         <v>1</v>
@@ -4451,37 +4325,13 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>0</v>
-      </c>
-      <c r="AT21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU21">
-        <v>0.02950472586518187</v>
-      </c>
-      <c r="AV21">
-        <v>1</v>
-      </c>
-      <c r="AW21">
-        <v>1</v>
-      </c>
-      <c r="AX21">
-        <v>1</v>
-      </c>
-      <c r="AY21">
-        <v>0</v>
-      </c>
-      <c r="AZ21" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="BD21">
-        <v>0.01981100631233716</v>
+        <v>0.002635202276386369</v>
       </c>
       <c r="BE21">
         <v>1</v>
@@ -4499,31 +4349,7 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>0</v>
-      </c>
-      <c r="BL21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BM21">
-        <v>0.0311239884104306</v>
-      </c>
-      <c r="BN21">
-        <v>1</v>
-      </c>
-      <c r="BO21">
-        <v>1</v>
-      </c>
-      <c r="BP21">
-        <v>1</v>
-      </c>
-      <c r="BQ21">
-        <v>0</v>
-      </c>
-      <c r="BR21" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:71">
@@ -4531,7 +4357,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.00148495696470613</v>
+        <v>0.001494984650571215</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4549,37 +4375,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K22">
-        <v>0.001480745158001102</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T22">
-        <v>0.001741930851475931</v>
+        <v>0.001732529989282705</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -4597,37 +4399,13 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC22">
-        <v>0.02610886403980025</v>
-      </c>
-      <c r="AD22">
-        <v>1</v>
-      </c>
-      <c r="AE22">
-        <v>1</v>
-      </c>
-      <c r="AF22">
-        <v>1</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AH22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AL22">
-        <v>0.01728544278431593</v>
+        <v>0.002079711638168729</v>
       </c>
       <c r="AM22">
         <v>1</v>
@@ -4645,37 +4423,13 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>0</v>
-      </c>
-      <c r="AT22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU22">
-        <v>0.02950472586518187</v>
-      </c>
-      <c r="AV22">
-        <v>1</v>
-      </c>
-      <c r="AW22">
-        <v>1</v>
-      </c>
-      <c r="AX22">
-        <v>1</v>
-      </c>
-      <c r="AY22">
-        <v>0</v>
-      </c>
-      <c r="AZ22" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="BD22">
-        <v>0.01981100631233716</v>
+        <v>0.002635202276386369</v>
       </c>
       <c r="BE22">
         <v>1</v>
@@ -4693,31 +4447,7 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>0</v>
-      </c>
-      <c r="BL22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BM22">
-        <v>0.0311239884104306</v>
-      </c>
-      <c r="BN22">
-        <v>1</v>
-      </c>
-      <c r="BO22">
-        <v>1</v>
-      </c>
-      <c r="BP22">
-        <v>1</v>
-      </c>
-      <c r="BQ22">
-        <v>0</v>
-      </c>
-      <c r="BR22" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:71">
@@ -4725,7 +4455,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.00148495696470613</v>
+        <v>0.001494984650571215</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4743,37 +4473,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K23">
-        <v>0.001480745158001102</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="T23">
-        <v>0.001741930851475931</v>
+        <v>0.001732529989282705</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -4791,37 +4497,13 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC23">
-        <v>0.02610886403980025</v>
-      </c>
-      <c r="AD23">
-        <v>1</v>
-      </c>
-      <c r="AE23">
-        <v>1</v>
-      </c>
-      <c r="AF23">
-        <v>1</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AL23">
-        <v>0.01728544278431593</v>
+        <v>0.002079711638168729</v>
       </c>
       <c r="AM23">
         <v>1</v>
@@ -4839,37 +4521,13 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>0</v>
-      </c>
-      <c r="AT23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU23">
-        <v>0.02950472586518187</v>
-      </c>
-      <c r="AV23">
-        <v>1</v>
-      </c>
-      <c r="AW23">
-        <v>1</v>
-      </c>
-      <c r="AX23">
-        <v>1</v>
-      </c>
-      <c r="AY23">
-        <v>0</v>
-      </c>
-      <c r="AZ23" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="BD23">
-        <v>0.01981100631233716</v>
+        <v>0.002635202276386369</v>
       </c>
       <c r="BE23">
         <v>1</v>
@@ -4887,2267 +4545,7 @@
         <v>0</v>
       </c>
       <c r="BJ23">
-        <v>0</v>
-      </c>
-      <c r="BL23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM23">
-        <v>0.03096679654977186</v>
-      </c>
-      <c r="BN23">
-        <v>1</v>
-      </c>
-      <c r="BO23">
-        <v>1</v>
-      </c>
-      <c r="BP23">
-        <v>1</v>
-      </c>
-      <c r="BQ23">
-        <v>0</v>
-      </c>
-      <c r="BR23" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:71">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.00148495696470613</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K24">
-        <v>0.001480745158001102</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T24">
-        <v>0.001741930851475931</v>
-      </c>
-      <c r="U24">
-        <v>1</v>
-      </c>
-      <c r="V24">
-        <v>1</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>1</v>
-      </c>
-      <c r="Y24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC24">
-        <v>0.02597700109010429</v>
-      </c>
-      <c r="AD24">
-        <v>1</v>
-      </c>
-      <c r="AE24">
-        <v>1</v>
-      </c>
-      <c r="AF24">
-        <v>1</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>1</v>
-      </c>
-      <c r="AK24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL24">
-        <v>0.01728544278431593</v>
-      </c>
-      <c r="AM24">
-        <v>1</v>
-      </c>
-      <c r="AN24">
-        <v>1</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>1</v>
-      </c>
-      <c r="AQ24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>0</v>
-      </c>
-      <c r="AT24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU24">
-        <v>0.029355712098186</v>
-      </c>
-      <c r="AV24">
-        <v>1</v>
-      </c>
-      <c r="AW24">
-        <v>1</v>
-      </c>
-      <c r="AX24">
-        <v>1</v>
-      </c>
-      <c r="AY24">
-        <v>0</v>
-      </c>
-      <c r="AZ24" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA24">
-        <v>1</v>
-      </c>
-      <c r="BC24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="BD24">
-        <v>0.01981100631233716</v>
-      </c>
-      <c r="BE24">
-        <v>1</v>
-      </c>
-      <c r="BF24">
-        <v>1</v>
-      </c>
-      <c r="BG24">
-        <v>0</v>
-      </c>
-      <c r="BH24">
-        <v>1</v>
-      </c>
-      <c r="BI24" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ24">
-        <v>0</v>
-      </c>
-      <c r="BL24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM24">
-        <v>0.03096679654977186</v>
-      </c>
-      <c r="BN24">
-        <v>1</v>
-      </c>
-      <c r="BO24">
-        <v>1</v>
-      </c>
-      <c r="BP24">
-        <v>1</v>
-      </c>
-      <c r="BQ24">
-        <v>0</v>
-      </c>
-      <c r="BR24" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:71">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.00148495696470613</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K25">
-        <v>0.00147472254912739</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T25">
-        <v>0.001741930851475931</v>
-      </c>
-      <c r="U25">
-        <v>1</v>
-      </c>
-      <c r="V25">
-        <v>1</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>1</v>
-      </c>
-      <c r="Y25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC25">
-        <v>0.02597700109010429</v>
-      </c>
-      <c r="AD25">
-        <v>1</v>
-      </c>
-      <c r="AE25">
-        <v>1</v>
-      </c>
-      <c r="AF25">
-        <v>1</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI25">
-        <v>1</v>
-      </c>
-      <c r="AK25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL25">
-        <v>0.01728544278431593</v>
-      </c>
-      <c r="AM25">
-        <v>1</v>
-      </c>
-      <c r="AN25">
-        <v>1</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>1</v>
-      </c>
-      <c r="AQ25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>0</v>
-      </c>
-      <c r="AT25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU25">
-        <v>0.029355712098186</v>
-      </c>
-      <c r="AV25">
-        <v>1</v>
-      </c>
-      <c r="AW25">
-        <v>1</v>
-      </c>
-      <c r="AX25">
-        <v>1</v>
-      </c>
-      <c r="AY25">
-        <v>0</v>
-      </c>
-      <c r="AZ25" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA25">
-        <v>1</v>
-      </c>
-      <c r="BC25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="BD25">
-        <v>0.01981100631233716</v>
-      </c>
-      <c r="BE25">
-        <v>1</v>
-      </c>
-      <c r="BF25">
-        <v>1</v>
-      </c>
-      <c r="BG25">
-        <v>0</v>
-      </c>
-      <c r="BH25">
-        <v>1</v>
-      </c>
-      <c r="BI25" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ25">
-        <v>0</v>
-      </c>
-      <c r="BL25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BM25">
-        <v>0.03096679654977186</v>
-      </c>
-      <c r="BN25">
-        <v>1</v>
-      </c>
-      <c r="BO25">
-        <v>1</v>
-      </c>
-      <c r="BP25">
-        <v>1</v>
-      </c>
-      <c r="BQ25">
-        <v>0</v>
-      </c>
-      <c r="BR25" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:71">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.00148495696470613</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K26">
-        <v>0.00147472254912739</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T26">
-        <v>0.001741930851475931</v>
-      </c>
-      <c r="U26">
-        <v>1</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>1</v>
-      </c>
-      <c r="Y26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC26">
-        <v>0.02597700109010429</v>
-      </c>
-      <c r="AD26">
-        <v>1</v>
-      </c>
-      <c r="AE26">
-        <v>1</v>
-      </c>
-      <c r="AF26">
-        <v>1</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI26">
-        <v>1</v>
-      </c>
-      <c r="AK26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL26">
-        <v>0.01728544278431593</v>
-      </c>
-      <c r="AM26">
-        <v>1</v>
-      </c>
-      <c r="AN26">
-        <v>1</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>1</v>
-      </c>
-      <c r="AQ26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>0</v>
-      </c>
-      <c r="AT26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU26">
-        <v>0.029355712098186</v>
-      </c>
-      <c r="AV26">
-        <v>1</v>
-      </c>
-      <c r="AW26">
-        <v>1</v>
-      </c>
-      <c r="AX26">
-        <v>1</v>
-      </c>
-      <c r="AY26">
-        <v>0</v>
-      </c>
-      <c r="AZ26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA26">
-        <v>1</v>
-      </c>
-      <c r="BC26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="BD26">
-        <v>0.01981100631233716</v>
-      </c>
-      <c r="BE26">
-        <v>1</v>
-      </c>
-      <c r="BF26">
-        <v>1</v>
-      </c>
-      <c r="BG26">
-        <v>0</v>
-      </c>
-      <c r="BH26">
-        <v>1</v>
-      </c>
-      <c r="BI26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ26">
-        <v>0</v>
-      </c>
-      <c r="BL26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BM26">
-        <v>0.0308635561328138</v>
-      </c>
-      <c r="BN26">
-        <v>2</v>
-      </c>
-      <c r="BO26">
-        <v>2</v>
-      </c>
-      <c r="BP26">
-        <v>1</v>
-      </c>
-      <c r="BQ26">
-        <v>0</v>
-      </c>
-      <c r="BR26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS26">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:71">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.00148495696470613</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K27">
-        <v>0.00147472254912739</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T27">
-        <v>0.001741930851475931</v>
-      </c>
-      <c r="U27">
-        <v>1</v>
-      </c>
-      <c r="V27">
-        <v>1</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>1</v>
-      </c>
-      <c r="Y27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC27">
-        <v>0.02584513814040833</v>
-      </c>
-      <c r="AD27">
-        <v>1</v>
-      </c>
-      <c r="AE27">
-        <v>1</v>
-      </c>
-      <c r="AF27">
-        <v>1</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>2</v>
-      </c>
-      <c r="AK27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL27">
-        <v>0.01728544278431593</v>
-      </c>
-      <c r="AM27">
-        <v>1</v>
-      </c>
-      <c r="AN27">
-        <v>1</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>1</v>
-      </c>
-      <c r="AQ27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>0</v>
-      </c>
-      <c r="AT27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU27">
-        <v>0.02920669833119013</v>
-      </c>
-      <c r="AV27">
-        <v>1</v>
-      </c>
-      <c r="AW27">
-        <v>1</v>
-      </c>
-      <c r="AX27">
-        <v>1</v>
-      </c>
-      <c r="AY27">
-        <v>0</v>
-      </c>
-      <c r="AZ27" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA27">
-        <v>2</v>
-      </c>
-      <c r="BC27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="BD27">
-        <v>0.01981100631233716</v>
-      </c>
-      <c r="BE27">
-        <v>1</v>
-      </c>
-      <c r="BF27">
-        <v>1</v>
-      </c>
-      <c r="BG27">
-        <v>0</v>
-      </c>
-      <c r="BH27">
-        <v>1</v>
-      </c>
-      <c r="BI27" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ27">
-        <v>0</v>
-      </c>
-      <c r="BL27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BM27">
-        <v>0.03080960468911313</v>
-      </c>
-      <c r="BN27">
-        <v>1</v>
-      </c>
-      <c r="BO27">
-        <v>1</v>
-      </c>
-      <c r="BP27">
-        <v>1</v>
-      </c>
-      <c r="BQ27">
-        <v>0</v>
-      </c>
-      <c r="BR27" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:71">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.00148495696470613</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K28">
-        <v>0.001468699940253678</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>2</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T28">
-        <v>0.001741930851475931</v>
-      </c>
-      <c r="U28">
-        <v>1</v>
-      </c>
-      <c r="V28">
-        <v>1</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>1</v>
-      </c>
-      <c r="Y28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC28">
-        <v>0.02571327519071237</v>
-      </c>
-      <c r="AD28">
-        <v>1</v>
-      </c>
-      <c r="AE28">
-        <v>1</v>
-      </c>
-      <c r="AF28">
-        <v>1</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>3</v>
-      </c>
-      <c r="AK28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL28">
-        <v>0.01728544278431593</v>
-      </c>
-      <c r="AM28">
-        <v>1</v>
-      </c>
-      <c r="AN28">
-        <v>1</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>1</v>
-      </c>
-      <c r="AQ28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>0</v>
-      </c>
-      <c r="AT28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU28">
-        <v>0.02905768456419427</v>
-      </c>
-      <c r="AV28">
-        <v>1</v>
-      </c>
-      <c r="AW28">
-        <v>1</v>
-      </c>
-      <c r="AX28">
-        <v>1</v>
-      </c>
-      <c r="AY28">
-        <v>0</v>
-      </c>
-      <c r="AZ28" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA28">
-        <v>3</v>
-      </c>
-      <c r="BC28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="BD28">
-        <v>0.01981100631233716</v>
-      </c>
-      <c r="BE28">
-        <v>1</v>
-      </c>
-      <c r="BF28">
-        <v>1</v>
-      </c>
-      <c r="BG28">
-        <v>0</v>
-      </c>
-      <c r="BH28">
-        <v>1</v>
-      </c>
-      <c r="BI28" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ28">
-        <v>0</v>
-      </c>
-      <c r="BL28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM28">
-        <v>0.03065241282845438</v>
-      </c>
-      <c r="BN28">
-        <v>1</v>
-      </c>
-      <c r="BO28">
-        <v>1</v>
-      </c>
-      <c r="BP28">
-        <v>1</v>
-      </c>
-      <c r="BQ28">
-        <v>0</v>
-      </c>
-      <c r="BR28" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:71">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.00148495696470613</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K29">
-        <v>0.001462677331379967</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>3</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T29">
-        <v>0.001741930851475931</v>
-      </c>
-      <c r="U29">
-        <v>1</v>
-      </c>
-      <c r="V29">
-        <v>1</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>1</v>
-      </c>
-      <c r="Y29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC29">
-        <v>0.02544954929132045</v>
-      </c>
-      <c r="AD29">
-        <v>1</v>
-      </c>
-      <c r="AE29">
-        <v>1</v>
-      </c>
-      <c r="AF29">
-        <v>1</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>5</v>
-      </c>
-      <c r="AK29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL29">
-        <v>0.01728544278431593</v>
-      </c>
-      <c r="AM29">
-        <v>1</v>
-      </c>
-      <c r="AN29">
-        <v>1</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>1</v>
-      </c>
-      <c r="AQ29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>0</v>
-      </c>
-      <c r="AT29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU29">
-        <v>0.02875965703020253</v>
-      </c>
-      <c r="AV29">
-        <v>1</v>
-      </c>
-      <c r="AW29">
-        <v>1</v>
-      </c>
-      <c r="AX29">
-        <v>1</v>
-      </c>
-      <c r="AY29">
-        <v>0</v>
-      </c>
-      <c r="AZ29" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA29">
-        <v>5</v>
-      </c>
-      <c r="BC29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="BD29">
-        <v>0.01981100631233716</v>
-      </c>
-      <c r="BE29">
-        <v>1</v>
-      </c>
-      <c r="BF29">
-        <v>1</v>
-      </c>
-      <c r="BG29">
-        <v>0</v>
-      </c>
-      <c r="BH29">
-        <v>1</v>
-      </c>
-      <c r="BI29" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ29">
-        <v>0</v>
-      </c>
-      <c r="BL29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BM29">
-        <v>0.0303380291071369</v>
-      </c>
-      <c r="BN29">
-        <v>1</v>
-      </c>
-      <c r="BO29">
-        <v>1</v>
-      </c>
-      <c r="BP29">
-        <v>1</v>
-      </c>
-      <c r="BQ29">
-        <v>0</v>
-      </c>
-      <c r="BR29" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:71">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.00148495696470613</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K30">
-        <v>0.001450632113632543</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>5</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T30">
-        <v>0.001741930851475931</v>
-      </c>
-      <c r="U30">
-        <v>1</v>
-      </c>
-      <c r="V30">
-        <v>1</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>1</v>
-      </c>
-      <c r="Y30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC30">
-        <v>0.02096620900165778</v>
-      </c>
-      <c r="AD30">
-        <v>1</v>
-      </c>
-      <c r="AE30">
-        <v>1</v>
-      </c>
-      <c r="AF30">
-        <v>1</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>39</v>
-      </c>
-      <c r="AK30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL30">
-        <v>0.01728544278431593</v>
-      </c>
-      <c r="AM30">
-        <v>1</v>
-      </c>
-      <c r="AN30">
-        <v>1</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>1</v>
-      </c>
-      <c r="AQ30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>0</v>
-      </c>
-      <c r="AT30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AU30">
-        <v>0.02369318895234302</v>
-      </c>
-      <c r="AV30">
-        <v>1</v>
-      </c>
-      <c r="AW30">
-        <v>1</v>
-      </c>
-      <c r="AX30">
-        <v>1</v>
-      </c>
-      <c r="AY30">
-        <v>0</v>
-      </c>
-      <c r="AZ30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA30">
-        <v>39</v>
-      </c>
-      <c r="BC30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD30">
-        <v>0.01981100631233716</v>
-      </c>
-      <c r="BE30">
-        <v>1</v>
-      </c>
-      <c r="BF30">
-        <v>1</v>
-      </c>
-      <c r="BG30">
-        <v>0</v>
-      </c>
-      <c r="BH30">
-        <v>1</v>
-      </c>
-      <c r="BI30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ30">
-        <v>0</v>
-      </c>
-      <c r="BL30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BM30">
-        <v>0.02499350584473973</v>
-      </c>
-      <c r="BN30">
-        <v>1</v>
-      </c>
-      <c r="BO30">
-        <v>1</v>
-      </c>
-      <c r="BP30">
-        <v>1</v>
-      </c>
-      <c r="BQ30">
-        <v>0</v>
-      </c>
-      <c r="BR30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS30">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:71">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.00148495696470613</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K31">
-        <v>0.001245863411926337</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>39</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T31">
-        <v>0.001741930851475931</v>
-      </c>
-      <c r="U31">
-        <v>1</v>
-      </c>
-      <c r="V31">
-        <v>1</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>1</v>
-      </c>
-      <c r="Y31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC31">
-        <v>0.02040132153495178</v>
-      </c>
-      <c r="AD31">
-        <v>3</v>
-      </c>
-      <c r="AE31">
-        <v>3</v>
-      </c>
-      <c r="AF31">
-        <v>1</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>105</v>
-      </c>
-      <c r="AK31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL31">
-        <v>0.01728544278431593</v>
-      </c>
-      <c r="AM31">
-        <v>1</v>
-      </c>
-      <c r="AN31">
-        <v>1</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
-      </c>
-      <c r="AP31">
-        <v>1</v>
-      </c>
-      <c r="AQ31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR31">
-        <v>0</v>
-      </c>
-      <c r="AT31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU31">
-        <v>0.01911345107224967</v>
-      </c>
-      <c r="AV31">
-        <v>3</v>
-      </c>
-      <c r="AW31">
-        <v>3</v>
-      </c>
-      <c r="AX31">
-        <v>1</v>
-      </c>
-      <c r="AY31">
-        <v>0</v>
-      </c>
-      <c r="AZ31" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA31">
-        <v>105</v>
-      </c>
-      <c r="BC31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD31">
-        <v>0.01981100631233716</v>
-      </c>
-      <c r="BE31">
-        <v>1</v>
-      </c>
-      <c r="BF31">
-        <v>1</v>
-      </c>
-      <c r="BG31">
-        <v>0</v>
-      </c>
-      <c r="BH31">
-        <v>1</v>
-      </c>
-      <c r="BI31" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ31">
-        <v>0</v>
-      </c>
-      <c r="BL31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BM31">
-        <v>0.01849935058447397</v>
-      </c>
-      <c r="BN31">
-        <v>3</v>
-      </c>
-      <c r="BO31">
-        <v>3</v>
-      </c>
-      <c r="BP31">
-        <v>1</v>
-      </c>
-      <c r="BQ31">
-        <v>0</v>
-      </c>
-      <c r="BR31" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS31">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:71">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.001478934355832418</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K32">
-        <v>0.0002882686010061423</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>198</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T32">
-        <v>0.001713323459325799</v>
-      </c>
-      <c r="U32">
-        <v>1</v>
-      </c>
-      <c r="V32">
-        <v>1</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>1</v>
-      </c>
-      <c r="Y32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <v>1</v>
-      </c>
-      <c r="AB32" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>1</v>
-      </c>
-      <c r="AE32">
-        <v>1</v>
-      </c>
-      <c r="AF32">
-        <v>1</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>198</v>
-      </c>
-      <c r="AK32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL32">
-        <v>0.01686384661884481</v>
-      </c>
-      <c r="AM32">
-        <v>1</v>
-      </c>
-      <c r="AN32">
-        <v>1</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>1</v>
-      </c>
-      <c r="AQ32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR32">
-        <v>1</v>
-      </c>
-      <c r="AT32" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU32">
-        <v>0</v>
-      </c>
-      <c r="AV32">
-        <v>1</v>
-      </c>
-      <c r="AW32">
-        <v>1</v>
-      </c>
-      <c r="AX32">
-        <v>1</v>
-      </c>
-      <c r="AY32">
-        <v>0</v>
-      </c>
-      <c r="AZ32" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA32">
-        <v>198</v>
-      </c>
-      <c r="BC32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="BD32">
-        <v>0.0193278110364265</v>
-      </c>
-      <c r="BE32">
-        <v>1</v>
-      </c>
-      <c r="BF32">
-        <v>1</v>
-      </c>
-      <c r="BG32">
-        <v>0</v>
-      </c>
-      <c r="BH32">
-        <v>1</v>
-      </c>
-      <c r="BI32" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ32">
-        <v>1</v>
-      </c>
-      <c r="BL32" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM32">
-        <v>0</v>
-      </c>
-      <c r="BN32">
-        <v>1</v>
-      </c>
-      <c r="BO32">
-        <v>1</v>
-      </c>
-      <c r="BP32">
-        <v>1</v>
-      </c>
-      <c r="BQ32">
-        <v>0</v>
-      </c>
-      <c r="BR32" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS32">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="33" spans="1:62">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.001478934355832418</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T33">
-        <v>0.001713323459325799</v>
-      </c>
-      <c r="U33">
-        <v>1</v>
-      </c>
-      <c r="V33">
-        <v>1</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>1</v>
-      </c>
-      <c r="Y33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>1</v>
-      </c>
-      <c r="AK33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL33">
-        <v>0.01686384661884481</v>
-      </c>
-      <c r="AM33">
-        <v>1</v>
-      </c>
-      <c r="AN33">
-        <v>1</v>
-      </c>
-      <c r="AO33">
-        <v>0</v>
-      </c>
-      <c r="AP33">
-        <v>1</v>
-      </c>
-      <c r="AQ33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR33">
-        <v>1</v>
-      </c>
-      <c r="BC33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="BD33">
-        <v>0.0193278110364265</v>
-      </c>
-      <c r="BE33">
-        <v>1</v>
-      </c>
-      <c r="BF33">
-        <v>1</v>
-      </c>
-      <c r="BG33">
-        <v>0</v>
-      </c>
-      <c r="BH33">
-        <v>1</v>
-      </c>
-      <c r="BI33" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:62">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.001478934355832418</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T34">
-        <v>0.001713323459325799</v>
-      </c>
-      <c r="U34">
-        <v>1</v>
-      </c>
-      <c r="V34">
-        <v>1</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>1</v>
-      </c>
-      <c r="Y34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <v>1</v>
-      </c>
-      <c r="AK34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL34">
-        <v>0.01686384661884481</v>
-      </c>
-      <c r="AM34">
-        <v>1</v>
-      </c>
-      <c r="AN34">
-        <v>1</v>
-      </c>
-      <c r="AO34">
-        <v>0</v>
-      </c>
-      <c r="AP34">
-        <v>1</v>
-      </c>
-      <c r="AQ34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR34">
-        <v>1</v>
-      </c>
-      <c r="BC34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BD34">
-        <v>0.0193278110364265</v>
-      </c>
-      <c r="BE34">
-        <v>1</v>
-      </c>
-      <c r="BF34">
-        <v>1</v>
-      </c>
-      <c r="BG34">
-        <v>0</v>
-      </c>
-      <c r="BH34">
-        <v>1</v>
-      </c>
-      <c r="BI34" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:62">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.001478934355832418</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T35">
-        <v>0.001713323459325799</v>
-      </c>
-      <c r="U35">
-        <v>1</v>
-      </c>
-      <c r="V35">
-        <v>1</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>1</v>
-      </c>
-      <c r="Y35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <v>1</v>
-      </c>
-      <c r="AK35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL35">
-        <v>0.01686384661884481</v>
-      </c>
-      <c r="AM35">
-        <v>1</v>
-      </c>
-      <c r="AN35">
-        <v>1</v>
-      </c>
-      <c r="AO35">
-        <v>0</v>
-      </c>
-      <c r="AP35">
-        <v>1</v>
-      </c>
-      <c r="AQ35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR35">
-        <v>1</v>
-      </c>
-      <c r="BC35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BD35">
-        <v>0.0193278110364265</v>
-      </c>
-      <c r="BE35">
-        <v>1</v>
-      </c>
-      <c r="BF35">
-        <v>1</v>
-      </c>
-      <c r="BG35">
-        <v>0</v>
-      </c>
-      <c r="BH35">
-        <v>1</v>
-      </c>
-      <c r="BI35" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:62">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.001466889138084994</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>3</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T36">
-        <v>0.001656108675025536</v>
-      </c>
-      <c r="U36">
-        <v>1</v>
-      </c>
-      <c r="V36">
-        <v>1</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>1</v>
-      </c>
-      <c r="Y36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z36">
-        <v>3</v>
-      </c>
-      <c r="AK36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL36">
-        <v>0.01602065428790257</v>
-      </c>
-      <c r="AM36">
-        <v>1</v>
-      </c>
-      <c r="AN36">
-        <v>1</v>
-      </c>
-      <c r="AO36">
-        <v>0</v>
-      </c>
-      <c r="AP36">
-        <v>1</v>
-      </c>
-      <c r="AQ36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR36">
-        <v>3</v>
-      </c>
-      <c r="BC36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="BD36">
-        <v>0.01836142048460517</v>
-      </c>
-      <c r="BE36">
-        <v>1</v>
-      </c>
-      <c r="BF36">
-        <v>1</v>
-      </c>
-      <c r="BG36">
-        <v>0</v>
-      </c>
-      <c r="BH36">
-        <v>1</v>
-      </c>
-      <c r="BI36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:62">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.001238030000883941</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>41</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T37">
-        <v>0.0005690277733205357</v>
-      </c>
-      <c r="U37">
-        <v>1</v>
-      </c>
-      <c r="V37">
-        <v>1</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>1</v>
-      </c>
-      <c r="Y37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <v>41</v>
-      </c>
-      <c r="AK37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL37">
-        <v>0</v>
-      </c>
-      <c r="AM37">
-        <v>1</v>
-      </c>
-      <c r="AN37">
-        <v>1</v>
-      </c>
-      <c r="AO37">
-        <v>0</v>
-      </c>
-      <c r="AP37">
-        <v>1</v>
-      </c>
-      <c r="AQ37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR37">
-        <v>41</v>
-      </c>
-      <c r="BC37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD37">
-        <v>0</v>
-      </c>
-      <c r="BE37">
-        <v>1</v>
-      </c>
-      <c r="BF37">
-        <v>1</v>
-      </c>
-      <c r="BG37">
-        <v>0</v>
-      </c>
-      <c r="BH37">
-        <v>1</v>
-      </c>
-      <c r="BI37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ37">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
